--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4979,7 +4979,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>122</v>
@@ -13630,7 +13630,7 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>658</v>
